--- a/Resource/excel/mail.xlsx
+++ b/Resource/excel/mail.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ConfigId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>Extend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮派邀请函</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -177,6 +185,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -237,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +269,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,9 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,8 +658,8 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
     <col min="6" max="7" width="17.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
@@ -863,6 +881,36 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>

--- a/Resource/excel/mail.xlsx
+++ b/Resource/excel/mail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>ConfigId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,45 +64,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LimitCount</t>
-  </si>
-  <si>
-    <t>限制封数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyGetLimit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailySendLimit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日限制接收封数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日限制发送封数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgentList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>附件奖励配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>领取物品后是否立即删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DelNow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>礼物</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,6 +120,10 @@
   </si>
   <si>
     <t>邀请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -646,11 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,19 +627,16 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="17.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="17.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,37 +644,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
@@ -716,38 +670,26 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -755,35 +697,23 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
+      <c r="D4" s="2">
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>3</v>
@@ -791,32 +721,20 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" s="2">
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -824,32 +742,20 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -857,29 +763,20 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -887,53 +784,41 @@
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">

--- a/Resource/excel/mail.xlsx
+++ b/Resource/excel/mail.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\Server\trunk\Resource\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="0" windowWidth="22785" windowHeight="12570"/>
+    <workbookView windowWidth="26175" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="mail" sheetId="1" r:id="rId1"/>
@@ -22,116 +17,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>ConfigId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplyId</t>
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ValidTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Extend</t>
   </si>
   <si>
     <t>配置id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邮件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件的回复id</t>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有效时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>附件奖励配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加信息</t>
+  </si>
+  <si>
+    <t>敬酒邮件</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"90"}}]</t>
   </si>
   <si>
     <t>礼物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敬酒邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>感谢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>你是个好人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReplyId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件的回复id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敬酒邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"money":{"money":"90"}}]</t>
   </si>
   <si>
     <t>系统邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>哈哈哈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>帮派邀请函</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>邀请</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -142,31 +115,173 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +306,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -215,9 +516,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -228,29 +771,77 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -272,15 +863,12 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -609,255 +1197,192 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>